--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -159,7 +159,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -167,6 +167,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,6 +177,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -183,6 +185,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -206,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,6 +238,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -650,10 +658,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -807,7 +815,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1162,7 +1170,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1262,7 +1270,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1362,7 +1370,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1462,15 +1470,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>2.8695906823904554E-5</v>
@@ -1478,7 +1486,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.50519780446171392</v>
@@ -1486,7 +1494,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1494,7 +1502,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>282</v>
@@ -1502,18 +1510,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1582,10 +1590,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1708,7 +1716,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1952,7 +1960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1960,7 +1968,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2249,7 +2257,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2371,7 +2379,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2495,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2504,27 +2512,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2532,7 +2528,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2540,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2548,7 +2544,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2556,7 +2552,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2564,7 +2560,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2572,99 +2568,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2750,10 +2743,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2812,7 +2805,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -78,9 +83,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -213,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -221,7 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -242,7 +243,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,6 +318,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -643,31 +647,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -676,7 +680,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -685,7 +689,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -695,7 +699,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -705,94 +709,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -804,18 +808,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -881,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -949,7 +953,7 @@
         <v>-1.4042456223128703</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1017,7 +1021,7 @@
         <v>-0.7265910464856139</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1159,18 +1163,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1185,7 +1189,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1202,7 +1206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1259,18 +1263,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1285,7 +1289,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1302,7 +1306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1319,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1359,18 +1363,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1385,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1440,7 @@
         <v>0.62986599121063958</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1459,72 +1463,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>2.8695906823904554E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.50519780446171392</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>1.5312459936477059E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1546,7 +1550,7 @@
         <v>1.1575607439207588E-6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1561,7 @@
         <v>1.4351795783502783E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1574,29 +1578,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1604,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1628,71 +1632,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1705,246 +1709,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1957,266 +1961,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2228,36 +2232,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2272,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2306,7 +2310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2349,37 +2353,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.05859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2411,85 +2416,85 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>0.35873611648520443</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.22186346654710765</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>0.71097062489047824</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>0.45116763142101562</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
         <v>-0.80309601773064054</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="22">
         <v>0.68816416093215038</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -2500,19 +2505,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2520,7 +2525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2528,7 +2533,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2536,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2552,7 +2557,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2560,7 +2565,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2568,59 +2573,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -2633,7 +2638,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2641,85 +2646,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2732,24 +2726,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2757,7 +2751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2765,7 +2759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2773,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2781,10 +2775,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2794,18 +2788,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2871,7 +2865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +2933,7 @@
         <v>-1.4042456223128703</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +3001,7 @@
         <v>-0.7265910464856139</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3075,7 +3069,7 @@
         <v>0.58458683065054728</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -896,61 +896,61 @@
         <v>-9.8425548154436701E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19423303838851927</v>
+        <v>-0.19423303838851899</v>
       </c>
       <c r="E2">
-        <v>-0.28732262744014331</v>
+        <v>-0.28732262744014297</v>
       </c>
       <c r="F2">
-        <v>-0.37760168472257472</v>
+        <v>-0.37760168472257499</v>
       </c>
       <c r="G2">
-        <v>-0.46498370523482357</v>
+        <v>-0.46498370523482402</v>
       </c>
       <c r="H2">
-        <v>-0.54939225000144187</v>
+        <v>-0.54939225000144198</v>
       </c>
       <c r="I2">
-        <v>-0.63075970183748153</v>
+        <v>-0.63075970183748198</v>
       </c>
       <c r="J2">
-        <v>-0.70903082011543017</v>
+        <v>-0.70903082011542995</v>
       </c>
       <c r="K2">
-        <v>-0.78416139005131669</v>
+        <v>-0.78416139005131702</v>
       </c>
       <c r="L2">
-        <v>-0.85612124834855541</v>
+        <v>-0.85612124834855496</v>
       </c>
       <c r="M2">
-        <v>-0.92489270639079457</v>
+        <v>-0.92489270639079502</v>
       </c>
       <c r="N2">
-        <v>-0.99047294034605227</v>
+        <v>-0.99047294034605204</v>
       </c>
       <c r="O2">
-        <v>-1.0528721148194107</v>
+        <v>-1.05287211481941</v>
       </c>
       <c r="P2">
-        <v>-1.1121150930994896</v>
+        <v>-1.1121150930994901</v>
       </c>
       <c r="Q2">
-        <v>-1.1682392523469727</v>
+        <v>-1.16823925234697</v>
       </c>
       <c r="R2">
-        <v>-1.2212955432644488</v>
+        <v>-1.2212955432644499</v>
       </c>
       <c r="S2">
-        <v>-1.2713460549390809</v>
+        <v>-1.27134605493908</v>
       </c>
       <c r="T2">
-        <v>-1.3184645206811663</v>
+        <v>-1.31846452068117</v>
       </c>
       <c r="U2">
-        <v>-1.3627337433987907</v>
+        <v>-1.3627337433987901</v>
       </c>
       <c r="V2">
-        <v>-1.4042456223128703</v>
+        <v>-1.4042456223128701</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -961,64 +961,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1691766903049811E-2</v>
+        <v>-6.1691766903049797E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12024416152631787</v>
+        <v>-0.12024416152631801</v>
       </c>
       <c r="E3">
-        <v>-0.17569696377290181</v>
+        <v>-0.175696963772902</v>
       </c>
       <c r="F3">
-        <v>-0.22810315829592837</v>
+        <v>-0.228103158295928</v>
       </c>
       <c r="G3">
-        <v>-0.27752662136170853</v>
+        <v>-0.27752662136170902</v>
       </c>
       <c r="H3">
-        <v>-0.32404257840858947</v>
+        <v>-0.32404257840858902</v>
       </c>
       <c r="I3">
-        <v>-0.36773504713773808</v>
+        <v>-0.36773504713773802</v>
       </c>
       <c r="J3">
-        <v>-0.40869690228820693</v>
+        <v>-0.40869690228820699</v>
       </c>
       <c r="K3">
-        <v>-0.44702732943278428</v>
+        <v>-0.447027329432784</v>
       </c>
       <c r="L3">
-        <v>-0.48283165441947751</v>
+        <v>-0.48283165441947801</v>
       </c>
       <c r="M3">
-        <v>-0.51621894036810889</v>
+        <v>-0.516218940368109</v>
       </c>
       <c r="N3">
-        <v>-0.54730172564395019</v>
+        <v>-0.54730172564394997</v>
       </c>
       <c r="O3">
-        <v>-0.57619386964381636</v>
+        <v>-0.57619386964381603</v>
       </c>
       <c r="P3">
-        <v>-0.60301031094612345</v>
+        <v>-0.60301031094612301</v>
       </c>
       <c r="Q3">
-        <v>-0.62786522850223592</v>
+        <v>-0.62786522850223603</v>
       </c>
       <c r="R3">
-        <v>-0.65087189171188842</v>
+        <v>-0.65087189171188797</v>
       </c>
       <c r="S3">
         <v>-0.67214116316763395</v>
       </c>
       <c r="T3">
-        <v>-0.69178147439582793</v>
+        <v>-0.69178147439582804</v>
       </c>
       <c r="U3">
-        <v>-0.70989766212939176</v>
+        <v>-0.70989766212939198</v>
       </c>
       <c r="V3">
-        <v>-0.7265910464856139</v>
+        <v>-0.72659104648561401</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1100,61 +1100,61 @@
         <v>-3.9077235448901203E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6090414228130329E-2</v>
+        <v>-7.6090414228130301E-2</v>
       </c>
       <c r="E5">
-        <v>-0.1111060160645493</v>
+        <v>-0.11110601606454901</v>
       </c>
       <c r="F5">
-        <v>-0.14419283530562893</v>
+        <v>-0.14419283530562901</v>
       </c>
       <c r="G5">
-        <v>-0.17542107996349754</v>
+        <v>-0.17542107996349801</v>
       </c>
       <c r="H5">
-        <v>-0.2048624158062716</v>
+        <v>-0.20486241580627201</v>
       </c>
       <c r="I5">
-        <v>-0.23258908793634983</v>
+        <v>-0.23258908793635</v>
       </c>
       <c r="J5">
-        <v>-0.25867392084242297</v>
+        <v>-0.25867392084242302</v>
       </c>
       <c r="K5">
-        <v>-0.28318952653128371</v>
+        <v>-0.28318952653128399</v>
       </c>
       <c r="L5">
-        <v>-0.30620829477929579</v>
+        <v>-0.30620829477929601</v>
       </c>
       <c r="M5">
-        <v>-0.32780170383163348</v>
+        <v>-0.32780170383163298</v>
       </c>
       <c r="N5">
-        <v>-0.34804032441726179</v>
+        <v>-0.34804032441726201</v>
       </c>
       <c r="O5">
-        <v>-0.36699323993989025</v>
+        <v>-0.36699323993989003</v>
       </c>
       <c r="P5">
-        <v>-0.38472807789761687</v>
+        <v>-0.38472807789761698</v>
       </c>
       <c r="Q5">
-        <v>-0.40131053854817877</v>
+        <v>-0.401310538548179</v>
       </c>
       <c r="R5">
-        <v>-0.41680445920292769</v>
+        <v>-0.41680445920292802</v>
       </c>
       <c r="S5">
-        <v>-0.43127144430071718</v>
+        <v>-0.43127144430071701</v>
       </c>
       <c r="T5">
-        <v>-0.44477096204173944</v>
+        <v>-0.44477096204173899</v>
       </c>
       <c r="U5">
-        <v>-0.45736006485258607</v>
+        <v>-0.45736006485258601</v>
       </c>
       <c r="V5">
-        <v>-0.46909350489494656</v>
+        <v>-0.469093504894947</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.48047540317390436</v>
+        <v>0.48047540317390403</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.24698695197507564</v>
+        <v>0.246986951975076</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.69471692955640052</v>
+        <v>0.69471692955640096</v>
       </c>
       <c r="E4">
-        <v>0.62986599121063958</v>
+        <v>0.62986599121064002</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97501548556528583</v>
+        <v>-0.97501548556528606</v>
       </c>
       <c r="E5">
-        <v>0.95357730839249444</v>
+        <v>0.95357730839249399</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.8695906823904554E-5</v>
+        <v>2.8695906823904601E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.50519780446171392</v>
+        <v>0.50519780446171403</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>7.6562299682385295E-6</v>
       </c>
       <c r="C8">
-        <v>1.5312459936477059E-5</v>
+        <v>1.53124599364771E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,10 +1544,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5.7878037196037942E-7</v>
+        <v>5.78780371960379E-7</v>
       </c>
       <c r="C9">
-        <v>1.1575607439207588E-6</v>
+        <v>1.1575607439207599E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.4351795783502783E-4</v>
+        <v>1.43517957835028E-4</v>
       </c>
       <c r="C10">
-        <v>1.4351795783502783E-4</v>
+        <v>1.43517957835028E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1566,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.0250252744482732E-5</v>
+        <v>1.02502527444827E-5</v>
       </c>
       <c r="C11">
-        <v>1.154927269940581E-4</v>
+        <v>1.15492726994058E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1765,40 +1765,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1806,40 +1806,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1888,40 +1888,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2017,40 +2017,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2058,40 +2058,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2140,40 +2140,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.35873611648520443</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.22186346654710765</v>
+        <v>0.222</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.71097062489047824</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="E4" s="22">
-        <v>0.45116763142101562</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.80309601773064054</v>
+        <v>-0.80300000000000005</v>
       </c>
       <c r="E5" s="22">
-        <v>0.68816416093215038</v>
+        <v>0.68799999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2672,10 +2672,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2690,13 +2690,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2705,13 +2705,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2876,61 +2876,61 @@
         <v>-9.8425548154436701E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19423303838851927</v>
+        <v>-0.19423303838851899</v>
       </c>
       <c r="E2">
-        <v>-0.28732262744014331</v>
+        <v>-0.28732262744014297</v>
       </c>
       <c r="F2">
-        <v>-0.37760168472257472</v>
+        <v>-0.37760168472257499</v>
       </c>
       <c r="G2">
-        <v>-0.46498370523482357</v>
+        <v>-0.46498370523482402</v>
       </c>
       <c r="H2">
-        <v>-0.54939225000144187</v>
+        <v>-0.54939225000144198</v>
       </c>
       <c r="I2">
-        <v>-0.63075970183748153</v>
+        <v>-0.63075970183748198</v>
       </c>
       <c r="J2">
-        <v>-0.70903082011543017</v>
+        <v>-0.70903082011542995</v>
       </c>
       <c r="K2">
-        <v>-0.78416139005131669</v>
+        <v>-0.78416139005131702</v>
       </c>
       <c r="L2">
-        <v>-0.85612124834855541</v>
+        <v>-0.85612124834855496</v>
       </c>
       <c r="M2">
-        <v>-0.92489270639079457</v>
+        <v>-0.92489270639079502</v>
       </c>
       <c r="N2">
-        <v>-0.99047294034605227</v>
+        <v>-0.99047294034605204</v>
       </c>
       <c r="O2">
-        <v>-1.0528721148194107</v>
+        <v>-1.05287211481941</v>
       </c>
       <c r="P2">
-        <v>-1.1121150930994896</v>
+        <v>-1.1121150930994901</v>
       </c>
       <c r="Q2">
-        <v>-1.1682392523469727</v>
+        <v>-1.16823925234697</v>
       </c>
       <c r="R2">
-        <v>-1.2212955432644488</v>
+        <v>-1.2212955432644499</v>
       </c>
       <c r="S2">
-        <v>-1.2713460549390809</v>
+        <v>-1.27134605493908</v>
       </c>
       <c r="T2">
-        <v>-1.3184645206811663</v>
+        <v>-1.31846452068117</v>
       </c>
       <c r="U2">
-        <v>-1.3627337433987907</v>
+        <v>-1.3627337433987901</v>
       </c>
       <c r="V2">
-        <v>-1.4042456223128703</v>
+        <v>-1.4042456223128701</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2941,64 +2941,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1691766903049811E-2</v>
+        <v>-6.1691766903049797E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12024416152631787</v>
+        <v>-0.12024416152631801</v>
       </c>
       <c r="E3">
-        <v>-0.17569696377290181</v>
+        <v>-0.175696963772902</v>
       </c>
       <c r="F3">
-        <v>-0.22810315829592837</v>
+        <v>-0.228103158295928</v>
       </c>
       <c r="G3">
-        <v>-0.27752662136170853</v>
+        <v>-0.27752662136170902</v>
       </c>
       <c r="H3">
-        <v>-0.32404257840858947</v>
+        <v>-0.32404257840858902</v>
       </c>
       <c r="I3">
-        <v>-0.36773504713773808</v>
+        <v>-0.36773504713773802</v>
       </c>
       <c r="J3">
-        <v>-0.40869690228820693</v>
+        <v>-0.40869690228820699</v>
       </c>
       <c r="K3">
-        <v>-0.44702732943278428</v>
+        <v>-0.447027329432784</v>
       </c>
       <c r="L3">
-        <v>-0.48283165441947751</v>
+        <v>-0.48283165441947801</v>
       </c>
       <c r="M3">
-        <v>-0.51621894036810889</v>
+        <v>-0.516218940368109</v>
       </c>
       <c r="N3">
-        <v>-0.54730172564395019</v>
+        <v>-0.54730172564394997</v>
       </c>
       <c r="O3">
-        <v>-0.57619386964381636</v>
+        <v>-0.57619386964381603</v>
       </c>
       <c r="P3">
-        <v>-0.60301031094612345</v>
+        <v>-0.60301031094612301</v>
       </c>
       <c r="Q3">
-        <v>-0.62786522850223592</v>
+        <v>-0.62786522850223603</v>
       </c>
       <c r="R3">
-        <v>-0.65087189171188842</v>
+        <v>-0.65087189171188797</v>
       </c>
       <c r="S3">
         <v>-0.67214116316763395</v>
       </c>
       <c r="T3">
-        <v>-0.69178147439582793</v>
+        <v>-0.69178147439582804</v>
       </c>
       <c r="U3">
-        <v>-0.70989766212939176</v>
+        <v>-0.70989766212939198</v>
       </c>
       <c r="V3">
-        <v>-0.7265910464856139</v>
+        <v>-0.72659104648561401</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3009,64 +3009,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7662788648948489E-2</v>
+        <v>7.7662788648948503E-2</v>
       </c>
       <c r="D4">
-        <v>0.1447634113267614</v>
+        <v>0.14476341132676099</v>
       </c>
       <c r="E4">
-        <v>0.2030749575820685</v>
+        <v>0.203074957582069</v>
       </c>
       <c r="F4">
-        <v>0.25398656867823266</v>
+        <v>0.25398656867823299</v>
       </c>
       <c r="G4">
-        <v>0.29860610110109853</v>
+        <v>0.29860610110109898</v>
       </c>
       <c r="H4">
-        <v>0.33783181175355848</v>
+        <v>0.33783181175355798</v>
       </c>
       <c r="I4">
-        <v>0.37240123559828031</v>
+        <v>0.37240123559827998</v>
       </c>
       <c r="J4">
-        <v>0.40292769476981416</v>
+        <v>0.40292769476981399</v>
       </c>
       <c r="K4">
-        <v>0.4299258492242104</v>
+        <v>0.42992584922421001</v>
       </c>
       <c r="L4">
-        <v>0.45383197481501114</v>
+        <v>0.45383197481501097</v>
       </c>
       <c r="M4">
-        <v>0.47501829550413455</v>
+        <v>0.47501829550413499</v>
       </c>
       <c r="N4">
-        <v>0.49380505053120005</v>
+        <v>0.4938050505312</v>
       </c>
       <c r="O4">
-        <v>0.5104689918700096</v>
+        <v>0.51046899187001005</v>
       </c>
       <c r="P4">
-        <v>0.52525098155486472</v>
+        <v>0.52525098155486505</v>
       </c>
       <c r="Q4">
-        <v>0.53836126054281541</v>
+        <v>0.53836126054281497</v>
       </c>
       <c r="R4">
-        <v>0.54998446160663039</v>
+        <v>0.54998446160662995</v>
       </c>
       <c r="S4">
-        <v>0.56028300000138875</v>
+        <v>0.56028300000138898</v>
       </c>
       <c r="T4">
-        <v>0.56940051435545147</v>
+        <v>0.56940051435545103</v>
       </c>
       <c r="U4">
-        <v>0.57746411875879833</v>
+        <v>0.577464118758798</v>
       </c>
       <c r="V4">
-        <v>0.58458683065054728</v>
+        <v>0.58458683065054695</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3077,64 +3077,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2977276198569113E-2</v>
+        <v>-7.2977276198569099E-2</v>
       </c>
       <c r="D5">
-        <v>-0.14602376687433147</v>
+        <v>-0.146023766874331</v>
       </c>
       <c r="E5">
-        <v>-0.21902493275981613</v>
+        <v>-0.21902493275981599</v>
       </c>
       <c r="F5">
-        <v>-0.29185531635927686</v>
+        <v>-0.29185531635927697</v>
       </c>
       <c r="G5">
-        <v>-0.36438279967886994</v>
+        <v>-0.36438279967887</v>
       </c>
       <c r="H5">
-        <v>-0.43647111894942991</v>
+        <v>-0.43647111894943003</v>
       </c>
       <c r="I5">
-        <v>-0.5079829081389442</v>
+        <v>-0.50798290813894398</v>
       </c>
       <c r="J5">
-        <v>-0.57878132973707053</v>
+        <v>-0.57878132973707097</v>
       </c>
       <c r="K5">
-        <v>-0.6487321650251956</v>
+        <v>-0.64873216502519604</v>
       </c>
       <c r="L5">
-        <v>-0.71770488523411047</v>
+        <v>-0.71770488523411002</v>
       </c>
       <c r="M5">
-        <v>-0.7855740792724345</v>
+        <v>-0.78557407927243506</v>
       </c>
       <c r="N5">
-        <v>-0.85222021276958737</v>
+        <v>-0.85222021276958704</v>
       </c>
       <c r="O5">
-        <v>-0.91753060395834252</v>
+        <v>-0.91753060395834296</v>
       </c>
       <c r="P5">
-        <v>-0.9814000195433138</v>
+        <v>-0.98140001954331402</v>
       </c>
       <c r="Q5">
-        <v>-1.0437313263040191</v>
+        <v>-1.04373132630402</v>
       </c>
       <c r="R5">
-        <v>-1.1044359900094065</v>
+        <v>-1.1044359900094101</v>
       </c>
       <c r="S5">
-        <v>-1.1634344662751159</v>
+        <v>-1.1634344662751199</v>
       </c>
       <c r="T5">
-        <v>-1.2206566128824134</v>
+        <v>-1.2206566128824099</v>
       </c>
       <c r="U5">
-        <v>-1.2760418433336764</v>
+        <v>-1.27604184333368</v>
       </c>
       <c r="V5">
-        <v>-1.3295394209808156</v>
+        <v>-1.32953942098082</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test1_3_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,12 +30,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -896,61 +896,61 @@
         <v>-9.8425548154436701E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19423303838851899</v>
+        <v>-0.19423303838851927</v>
       </c>
       <c r="E2">
-        <v>-0.28732262744014297</v>
+        <v>-0.28732262744014331</v>
       </c>
       <c r="F2">
-        <v>-0.37760168472257499</v>
+        <v>-0.37760168472257472</v>
       </c>
       <c r="G2">
-        <v>-0.46498370523482402</v>
+        <v>-0.46498370523482357</v>
       </c>
       <c r="H2">
-        <v>-0.54939225000144198</v>
+        <v>-0.54939225000144187</v>
       </c>
       <c r="I2">
-        <v>-0.63075970183748198</v>
+        <v>-0.63075970183748153</v>
       </c>
       <c r="J2">
-        <v>-0.70903082011542995</v>
+        <v>-0.70903082011543017</v>
       </c>
       <c r="K2">
-        <v>-0.78416139005131702</v>
+        <v>-0.78416139005131669</v>
       </c>
       <c r="L2">
-        <v>-0.85612124834855496</v>
+        <v>-0.85612124834855541</v>
       </c>
       <c r="M2">
-        <v>-0.92489270639079502</v>
+        <v>-0.92489270639079457</v>
       </c>
       <c r="N2">
-        <v>-0.99047294034605204</v>
+        <v>-0.99047294034605227</v>
       </c>
       <c r="O2">
-        <v>-1.05287211481941</v>
+        <v>-1.0528721148194107</v>
       </c>
       <c r="P2">
-        <v>-1.1121150930994901</v>
+        <v>-1.1121150930994896</v>
       </c>
       <c r="Q2">
-        <v>-1.16823925234697</v>
+        <v>-1.1682392523469727</v>
       </c>
       <c r="R2">
-        <v>-1.2212955432644499</v>
+        <v>-1.2212955432644488</v>
       </c>
       <c r="S2">
-        <v>-1.27134605493908</v>
+        <v>-1.2713460549390809</v>
       </c>
       <c r="T2">
-        <v>-1.31846452068117</v>
+        <v>-1.3184645206811663</v>
       </c>
       <c r="U2">
-        <v>-1.3627337433987901</v>
+        <v>-1.3627337433987907</v>
       </c>
       <c r="V2">
-        <v>-1.4042456223128701</v>
+        <v>-1.4042456223128703</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -961,64 +961,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1691766903049797E-2</v>
+        <v>-6.1691766903049811E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12024416152631801</v>
+        <v>-0.12024416152631787</v>
       </c>
       <c r="E3">
-        <v>-0.175696963772902</v>
+        <v>-0.17569696377290181</v>
       </c>
       <c r="F3">
-        <v>-0.228103158295928</v>
+        <v>-0.22810315829592837</v>
       </c>
       <c r="G3">
-        <v>-0.27752662136170902</v>
+        <v>-0.27752662136170853</v>
       </c>
       <c r="H3">
-        <v>-0.32404257840858902</v>
+        <v>-0.32404257840858947</v>
       </c>
       <c r="I3">
-        <v>-0.36773504713773802</v>
+        <v>-0.36773504713773808</v>
       </c>
       <c r="J3">
-        <v>-0.40869690228820699</v>
+        <v>-0.40869690228820693</v>
       </c>
       <c r="K3">
-        <v>-0.447027329432784</v>
+        <v>-0.44702732943278428</v>
       </c>
       <c r="L3">
-        <v>-0.48283165441947801</v>
+        <v>-0.48283165441947751</v>
       </c>
       <c r="M3">
-        <v>-0.516218940368109</v>
+        <v>-0.51621894036810889</v>
       </c>
       <c r="N3">
-        <v>-0.54730172564394997</v>
+        <v>-0.54730172564395019</v>
       </c>
       <c r="O3">
-        <v>-0.57619386964381603</v>
+        <v>-0.57619386964381636</v>
       </c>
       <c r="P3">
-        <v>-0.60301031094612301</v>
+        <v>-0.60301031094612345</v>
       </c>
       <c r="Q3">
-        <v>-0.62786522850223603</v>
+        <v>-0.62786522850223592</v>
       </c>
       <c r="R3">
-        <v>-0.65087189171188797</v>
+        <v>-0.65087189171188842</v>
       </c>
       <c r="S3">
         <v>-0.67214116316763395</v>
       </c>
       <c r="T3">
-        <v>-0.69178147439582804</v>
+        <v>-0.69178147439582793</v>
       </c>
       <c r="U3">
-        <v>-0.70989766212939198</v>
+        <v>-0.70989766212939176</v>
       </c>
       <c r="V3">
-        <v>-0.72659104648561401</v>
+        <v>-0.7265910464856139</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1100,61 +1100,61 @@
         <v>-3.9077235448901203E-2</v>
       </c>
       <c r="D5">
-        <v>-7.6090414228130301E-2</v>
+        <v>-7.6090414228130329E-2</v>
       </c>
       <c r="E5">
-        <v>-0.11110601606454901</v>
+        <v>-0.1111060160645493</v>
       </c>
       <c r="F5">
-        <v>-0.14419283530562901</v>
+        <v>-0.14419283530562893</v>
       </c>
       <c r="G5">
-        <v>-0.17542107996349801</v>
+        <v>-0.17542107996349754</v>
       </c>
       <c r="H5">
-        <v>-0.20486241580627201</v>
+        <v>-0.2048624158062716</v>
       </c>
       <c r="I5">
-        <v>-0.23258908793635</v>
+        <v>-0.23258908793634983</v>
       </c>
       <c r="J5">
-        <v>-0.25867392084242302</v>
+        <v>-0.25867392084242297</v>
       </c>
       <c r="K5">
-        <v>-0.28318952653128399</v>
+        <v>-0.28318952653128371</v>
       </c>
       <c r="L5">
-        <v>-0.30620829477929601</v>
+        <v>-0.30620829477929579</v>
       </c>
       <c r="M5">
-        <v>-0.32780170383163298</v>
+        <v>-0.32780170383163348</v>
       </c>
       <c r="N5">
-        <v>-0.34804032441726201</v>
+        <v>-0.34804032441726179</v>
       </c>
       <c r="O5">
-        <v>-0.36699323993989003</v>
+        <v>-0.36699323993989025</v>
       </c>
       <c r="P5">
-        <v>-0.38472807789761698</v>
+        <v>-0.38472807789761687</v>
       </c>
       <c r="Q5">
-        <v>-0.401310538548179</v>
+        <v>-0.40131053854817877</v>
       </c>
       <c r="R5">
-        <v>-0.41680445920292802</v>
+        <v>-0.41680445920292769</v>
       </c>
       <c r="S5">
-        <v>-0.43127144430071701</v>
+        <v>-0.43127144430071718</v>
       </c>
       <c r="T5">
-        <v>-0.44477096204173899</v>
+        <v>-0.44477096204173944</v>
       </c>
       <c r="U5">
-        <v>-0.45736006485258601</v>
+        <v>-0.45736006485258607</v>
       </c>
       <c r="V5">
-        <v>-0.469093504894947</v>
+        <v>-0.46909350489494656</v>
       </c>
     </row>
   </sheetData>
@@ -1194,10 +1194,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.48047540317390403</v>
+        <v>0.48047540317390436</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.246986951975076</v>
+        <v>0.24698695197507564</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1434,10 +1434,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.69471692955640096</v>
+        <v>0.69471692955640052</v>
       </c>
       <c r="E4">
-        <v>0.62986599121064002</v>
+        <v>0.62986599121063958</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.97501548556528606</v>
+        <v>-0.97501548556528583</v>
       </c>
       <c r="E5">
-        <v>0.95357730839249399</v>
+        <v>0.95357730839249444</v>
       </c>
     </row>
   </sheetData>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1485,7 +1485,7 @@
         <v>29</v>
       </c>
       <c r="B2">
-        <v>2.8695906823904601E-5</v>
+        <v>2.8695906823904554E-5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1493,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.50519780446171403</v>
+        <v>0.50519780446171392</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1501,7 +1501,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1536,7 +1536,7 @@
         <v>7.6562299682385295E-6</v>
       </c>
       <c r="C8">
-        <v>1.53124599364771E-5</v>
+        <v>1.5312459936477059E-5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1544,10 +1544,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5.78780371960379E-7</v>
+        <v>5.7878037196037942E-7</v>
       </c>
       <c r="C9">
-        <v>1.1575607439207599E-6</v>
+        <v>1.1575607439207588E-6</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.43517957835028E-4</v>
+        <v>1.4351795783502783E-4</v>
       </c>
       <c r="C10">
-        <v>1.43517957835028E-4</v>
+        <v>1.4351795783502783E-4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1566,10 +1566,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1.02502527444827E-5</v>
+        <v>1.0250252744482732E-5</v>
       </c>
       <c r="C11">
-        <v>1.15492726994058E-4</v>
+        <v>1.154927269940581E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1713,7 +1713,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -1765,40 +1765,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1806,40 +1806,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1847,40 +1847,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1888,40 +1888,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1964,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2017,40 +2017,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2058,40 +2058,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2140,40 +2140,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2421,7 +2421,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.35899999999999999</v>
+        <v>0.35873611648520443</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.222</v>
+        <v>0.22186346654710765</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2461,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.71099999999999997</v>
+        <v>0.71097062489047824</v>
       </c>
       <c r="E4" s="22">
-        <v>0.45100000000000001</v>
+        <v>0.45116763142101562</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.80300000000000005</v>
+        <v>-0.80309601773064054</v>
       </c>
       <c r="E5" s="22">
-        <v>0.68799999999999994</v>
+        <v>0.68816416093215038</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
@@ -2663,7 +2663,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2672,10 +2672,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2690,13 +2690,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2705,13 +2705,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2876,61 +2876,61 @@
         <v>-9.8425548154436701E-2</v>
       </c>
       <c r="D2">
-        <v>-0.19423303838851899</v>
+        <v>-0.19423303838851927</v>
       </c>
       <c r="E2">
-        <v>-0.28732262744014297</v>
+        <v>-0.28732262744014331</v>
       </c>
       <c r="F2">
-        <v>-0.37760168472257499</v>
+        <v>-0.37760168472257472</v>
       </c>
       <c r="G2">
-        <v>-0.46498370523482402</v>
+        <v>-0.46498370523482357</v>
       </c>
       <c r="H2">
-        <v>-0.54939225000144198</v>
+        <v>-0.54939225000144187</v>
       </c>
       <c r="I2">
-        <v>-0.63075970183748198</v>
+        <v>-0.63075970183748153</v>
       </c>
       <c r="J2">
-        <v>-0.70903082011542995</v>
+        <v>-0.70903082011543017</v>
       </c>
       <c r="K2">
-        <v>-0.78416139005131702</v>
+        <v>-0.78416139005131669</v>
       </c>
       <c r="L2">
-        <v>-0.85612124834855496</v>
+        <v>-0.85612124834855541</v>
       </c>
       <c r="M2">
-        <v>-0.92489270639079502</v>
+        <v>-0.92489270639079457</v>
       </c>
       <c r="N2">
-        <v>-0.99047294034605204</v>
+        <v>-0.99047294034605227</v>
       </c>
       <c r="O2">
-        <v>-1.05287211481941</v>
+        <v>-1.0528721148194107</v>
       </c>
       <c r="P2">
-        <v>-1.1121150930994901</v>
+        <v>-1.1121150930994896</v>
       </c>
       <c r="Q2">
-        <v>-1.16823925234697</v>
+        <v>-1.1682392523469727</v>
       </c>
       <c r="R2">
-        <v>-1.2212955432644499</v>
+        <v>-1.2212955432644488</v>
       </c>
       <c r="S2">
-        <v>-1.27134605493908</v>
+        <v>-1.2713460549390809</v>
       </c>
       <c r="T2">
-        <v>-1.31846452068117</v>
+        <v>-1.3184645206811663</v>
       </c>
       <c r="U2">
-        <v>-1.3627337433987901</v>
+        <v>-1.3627337433987907</v>
       </c>
       <c r="V2">
-        <v>-1.4042456223128701</v>
+        <v>-1.4042456223128703</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2941,64 +2941,64 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-6.1691766903049797E-2</v>
+        <v>-6.1691766903049811E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12024416152631801</v>
+        <v>-0.12024416152631787</v>
       </c>
       <c r="E3">
-        <v>-0.175696963772902</v>
+        <v>-0.17569696377290181</v>
       </c>
       <c r="F3">
-        <v>-0.228103158295928</v>
+        <v>-0.22810315829592837</v>
       </c>
       <c r="G3">
-        <v>-0.27752662136170902</v>
+        <v>-0.27752662136170853</v>
       </c>
       <c r="H3">
-        <v>-0.32404257840858902</v>
+        <v>-0.32404257840858947</v>
       </c>
       <c r="I3">
-        <v>-0.36773504713773802</v>
+        <v>-0.36773504713773808</v>
       </c>
       <c r="J3">
-        <v>-0.40869690228820699</v>
+        <v>-0.40869690228820693</v>
       </c>
       <c r="K3">
-        <v>-0.447027329432784</v>
+        <v>-0.44702732943278428</v>
       </c>
       <c r="L3">
-        <v>-0.48283165441947801</v>
+        <v>-0.48283165441947751</v>
       </c>
       <c r="M3">
-        <v>-0.516218940368109</v>
+        <v>-0.51621894036810889</v>
       </c>
       <c r="N3">
-        <v>-0.54730172564394997</v>
+        <v>-0.54730172564395019</v>
       </c>
       <c r="O3">
-        <v>-0.57619386964381603</v>
+        <v>-0.57619386964381636</v>
       </c>
       <c r="P3">
-        <v>-0.60301031094612301</v>
+        <v>-0.60301031094612345</v>
       </c>
       <c r="Q3">
-        <v>-0.62786522850223603</v>
+        <v>-0.62786522850223592</v>
       </c>
       <c r="R3">
-        <v>-0.65087189171188797</v>
+        <v>-0.65087189171188842</v>
       </c>
       <c r="S3">
         <v>-0.67214116316763395</v>
       </c>
       <c r="T3">
-        <v>-0.69178147439582804</v>
+        <v>-0.69178147439582793</v>
       </c>
       <c r="U3">
-        <v>-0.70989766212939198</v>
+        <v>-0.70989766212939176</v>
       </c>
       <c r="V3">
-        <v>-0.72659104648561401</v>
+        <v>-0.7265910464856139</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -3009,64 +3009,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.7662788648948503E-2</v>
+        <v>7.7662788648948489E-2</v>
       </c>
       <c r="D4">
-        <v>0.14476341132676099</v>
+        <v>0.1447634113267614</v>
       </c>
       <c r="E4">
-        <v>0.203074957582069</v>
+        <v>0.2030749575820685</v>
       </c>
       <c r="F4">
-        <v>0.25398656867823299</v>
+        <v>0.25398656867823266</v>
       </c>
       <c r="G4">
-        <v>0.29860610110109898</v>
+        <v>0.29860610110109853</v>
       </c>
       <c r="H4">
-        <v>0.33783181175355798</v>
+        <v>0.33783181175355848</v>
       </c>
       <c r="I4">
-        <v>0.37240123559827998</v>
+        <v>0.37240123559828031</v>
       </c>
       <c r="J4">
-        <v>0.40292769476981399</v>
+        <v>0.40292769476981416</v>
       </c>
       <c r="K4">
-        <v>0.42992584922421001</v>
+        <v>0.4299258492242104</v>
       </c>
       <c r="L4">
-        <v>0.45383197481501097</v>
+        <v>0.45383197481501114</v>
       </c>
       <c r="M4">
-        <v>0.47501829550413499</v>
+        <v>0.47501829550413455</v>
       </c>
       <c r="N4">
-        <v>0.4938050505312</v>
+        <v>0.49380505053120005</v>
       </c>
       <c r="O4">
-        <v>0.51046899187001005</v>
+        <v>0.5104689918700096</v>
       </c>
       <c r="P4">
-        <v>0.52525098155486505</v>
+        <v>0.52525098155486472</v>
       </c>
       <c r="Q4">
-        <v>0.53836126054281497</v>
+        <v>0.53836126054281541</v>
       </c>
       <c r="R4">
-        <v>0.54998446160662995</v>
+        <v>0.54998446160663039</v>
       </c>
       <c r="S4">
-        <v>0.56028300000138898</v>
+        <v>0.56028300000138875</v>
       </c>
       <c r="T4">
-        <v>0.56940051435545103</v>
+        <v>0.56940051435545147</v>
       </c>
       <c r="U4">
-        <v>0.577464118758798</v>
+        <v>0.57746411875879833</v>
       </c>
       <c r="V4">
-        <v>0.58458683065054695</v>
+        <v>0.58458683065054728</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3077,64 +3077,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-7.2977276198569099E-2</v>
+        <v>-7.2977276198569113E-2</v>
       </c>
       <c r="D5">
-        <v>-0.146023766874331</v>
+        <v>-0.14602376687433147</v>
       </c>
       <c r="E5">
-        <v>-0.21902493275981599</v>
+        <v>-0.21902493275981613</v>
       </c>
       <c r="F5">
-        <v>-0.29185531635927697</v>
+        <v>-0.29185531635927686</v>
       </c>
       <c r="G5">
-        <v>-0.36438279967887</v>
+        <v>-0.36438279967886994</v>
       </c>
       <c r="H5">
-        <v>-0.43647111894943003</v>
+        <v>-0.43647111894942991</v>
       </c>
       <c r="I5">
-        <v>-0.50798290813894398</v>
+        <v>-0.5079829081389442</v>
       </c>
       <c r="J5">
-        <v>-0.57878132973707097</v>
+        <v>-0.57878132973707053</v>
       </c>
       <c r="K5">
-        <v>-0.64873216502519604</v>
+        <v>-0.6487321650251956</v>
       </c>
       <c r="L5">
-        <v>-0.71770488523411002</v>
+        <v>-0.71770488523411047</v>
       </c>
       <c r="M5">
-        <v>-0.78557407927243506</v>
+        <v>-0.7855740792724345</v>
       </c>
       <c r="N5">
-        <v>-0.85222021276958704</v>
+        <v>-0.85222021276958737</v>
       </c>
       <c r="O5">
-        <v>-0.91753060395834296</v>
+        <v>-0.91753060395834252</v>
       </c>
       <c r="P5">
-        <v>-0.98140001954331402</v>
+        <v>-0.9814000195433138</v>
       </c>
       <c r="Q5">
-        <v>-1.04373132630402</v>
+        <v>-1.0437313263040191</v>
       </c>
       <c r="R5">
-        <v>-1.1044359900094101</v>
+        <v>-1.1044359900094065</v>
       </c>
       <c r="S5">
-        <v>-1.1634344662751199</v>
+        <v>-1.1634344662751159</v>
       </c>
       <c r="T5">
-        <v>-1.2206566128824099</v>
+        <v>-1.2206566128824134</v>
       </c>
       <c r="U5">
-        <v>-1.27604184333368</v>
+        <v>-1.2760418433336764</v>
       </c>
       <c r="V5">
-        <v>-1.32953942098082</v>
+        <v>-1.3295394209808156</v>
       </c>
     </row>
   </sheetData>
